--- a/processing/final/bench_1mw/bench_1mw.xlsx
+++ b/processing/final/bench_1mw/bench_1mw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -235,6 +235,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>39.9092570348174</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>53.1203363692594</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.7479253155467</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>109.666429615077</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>68.42127267446359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>122.819398244237</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>68.1933984491916</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$2:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>39.9092570348174</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>53.1203363692594</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.7479253155467</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>109.666429615077</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>68.42127267446359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>122.819398244237</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>68.1933984491916</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -378,6 +454,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$9:$E$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>19.5591564163963</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.1127135165239</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101.205820638448</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>219.322953977831</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>199.086047667514</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>197.531385100497</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>141.054989363748</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$9:$E$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>19.5591564163963</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.1127135165239</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101.205820638448</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>219.322953977831</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>199.086047667514</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>197.531385100497</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>141.054989363748</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -521,6 +673,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$23:$E$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.2958144396258</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>46.7485566122394</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>72.4831100174128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>188.240169700418</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>235.683432457031</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>330.036817369496</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>592.912984730175</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$23:$E$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.2958144396258</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>46.7485566122394</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>72.4831100174128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>188.240169700418</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>235.683432457031</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>330.036817369496</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>592.912984730175</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -636,7 +868,7 @@
                   <c:v>7606.5625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8040.04583333333</c:v>
+                  <c:v>9116.120833333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10874.275</c:v>
@@ -664,6 +896,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$16:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.1350838546437</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.0856156443572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>181.439363447101</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>162.765116797686</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>369.052655032032</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>576.530226868484</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>441.156969995637</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$16:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.1350838546437</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.0856156443572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>181.439363447101</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>162.765116797686</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>369.052655032032</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>576.530226868484</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>441.156969995637</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -798,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46061392"/>
-        <c:axId val="-46057760"/>
+        <c:axId val="1166932224"/>
+        <c:axId val="1166936608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46061392"/>
+        <c:axId val="1166932224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +1218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46057760"/>
+        <c:crossAx val="1166936608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +1226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46057760"/>
+        <c:axId val="1166936608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1337,3514 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46061392"/>
+        <c:crossAx val="1166932224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Queue length for writes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$30:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.170833333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.879166666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.3416666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.1416666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$37:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.570833333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5583333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4583333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.9708333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$44:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69583333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.47916666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.02083333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$51:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.40416666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.12916666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1310808576"/>
+        <c:axId val="1310813120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1310808576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clients per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> memtier thread</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310813120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1310813120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Queue length time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310808576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Server time for reads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$2:$Q$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.112102754178376</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0809174104732535</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0735126692985917</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0838306809991216</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.055455825182892</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0957451897799425</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0556997321337354</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$2:$Q$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.112102754178376</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0809174104732535</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0735126692985917</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0838306809991216</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.055455825182892</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0957451897799425</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0556997321337354</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.46918687499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.39249179166666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.46747054166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.45103254166666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.50445575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.44834283333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.52961725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$9:$Q$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0571819240345242</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0615916535805624</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0638518763789383</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0747729065916634</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0725908338741921</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0755473149115749</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0572868426710707</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$9:$Q$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0571819240345242</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0615916535805624</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0638518763789383</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0747729065916634</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0725908338741921</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0755473149115749</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0572868426710707</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$9:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.42222716666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.37423158333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29136479166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.37112304166666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.44466754166666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.46969933333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.50093654166666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$16:$Q$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0760213363025145</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0555974317755784</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.144967952458465</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0679568451136187</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.123513901142302</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.186491406465348</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.108241405713631</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$16:$Q$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0760213363025145</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0555974317755784</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.144967952458465</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0679568451136187</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.123513901142302</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.186491406465348</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.108241405713631</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$16:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.49242829166666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.34494854166666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.375721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41346283333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.55702858333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.444927875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.73770012499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$23:$Q$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0769580036069117</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0632041933036867</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0499473054357404</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0680648444957615</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0756583057602801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0885936081149282</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.206425836589446</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$23:$Q$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0769580036069117</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0632041933036867</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0499473054357404</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0680648444957615</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0756583057602801</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0885936081149282</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.206425836589446</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$23:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.50554970833333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41174279166666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.36007079166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.36442317991631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.50083933333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.68174141666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.97551525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1359914864"/>
+        <c:axId val="1359917536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1359914864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clients per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> memtier thread</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359917536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1359917536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Server time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359914864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Server time for writes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$30:$Q$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0887125425934088</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0632991984597498</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0751020255812047</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0675668801547594</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683392470718596</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0649532348663444</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0652072834975355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$30:$Q$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0887125425934088</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0632991984597498</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0751020255812047</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0675668801547594</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683392470718596</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0649532348663444</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0652072834975355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$30:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.48215170833333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.45866320833333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.59718354166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.56408279166666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56581816666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56724975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.59796954166666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$37:$Q$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0685689302007133</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0551432525663686</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0552169496882982</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0577630719467485</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0541788768581752</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.08293320266429</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0501320597255628</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$37:$Q$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0685689302007133</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0551432525663686</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0552169496882982</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0577630719467485</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0541788768581752</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.08293320266429</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0501320597255628</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$37:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.48285949999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.430881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.40586791666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46064733333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.51485154166666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.50899433333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.490542375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$44:$Q$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0629462753923718</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0506946267171372</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0500776069261828</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0546354573973161</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0891017575956378</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.122767400852548</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.194561789314756</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$44:$Q$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.0629462753923718</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0506946267171372</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0500776069261828</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0546354573973161</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0891017575956378</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.122767400852548</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.194561789314756</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$44:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.38580170833333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.38773270833333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34944816666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.35754741666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.51740275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.39207145833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.71803325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$Q$51:$Q$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.076512770925958</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0486466943963167</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0513241753230619</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0504097856315597</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0976743480088412</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.178857148943387</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.257676656260817</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$Q$51:$Q$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.076512770925958</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0486466943963167</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0513241753230619</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0504097856315597</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0976743480088412</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.178857148943387</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.257676656260817</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$51:$P$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.41260345833333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.34416354166666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.32297379166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.30833233333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.42382354166666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73837279166666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.15159229166666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1366620144"/>
+        <c:axId val="1310911632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1366620144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clients per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> memtier thread</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310911632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1310911632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Server time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366620144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,6 +4938,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1141,13 +4961,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Write Throughput</a:t>
+              <a:t>Write Throughput (client based data)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (client based data)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1205,6 +5020,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$30:$E$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>31.4645214294864</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44.7703093158212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>89.4702165406914</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>80.6095497559374</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>81.72479831966859</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>75.87989436076479</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>75.152033724596</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$30:$E$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>31.4645214294864</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44.7703093158212</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>89.4702165406914</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>80.6095497559374</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>81.72479831966859</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>75.87989436076479</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>75.152033724596</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$30:$C$57</c:f>
@@ -1348,6 +5239,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$37:$E$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>23.3409989400673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.9548121044162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>83.1328518695954</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>151.448027918459</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>141.261274034467</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>162.309812746511</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>130.822169748208</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$37:$E$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>23.3409989400673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.9548121044162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>83.1328518695954</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>151.448027918459</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>141.261274034467</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>162.309812746511</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>130.822169748208</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$30:$C$57</c:f>
@@ -1491,6 +5458,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$44:$E$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>22.2536098649705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5669404425053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>87.727802685447</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>151.608305782196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>297.053873742054</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>458.255575837232</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>699.383120482244</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$44:$E$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>22.2536098649705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5669404425053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>87.727802685447</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>151.608305782196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>297.053873742054</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>458.255575837232</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>699.383120482244</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$30:$C$57</c:f>
@@ -1606,7 +5653,7 @@
                   <c:v>7746.68333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8892.92083333333</c:v>
+                  <c:v>9066.845833333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10950.5625</c:v>
@@ -1634,6 +5681,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$E$51:$E$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.4049012688578</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5153177709812</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>85.92778746306961</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>144.133507525598</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>331.638134780554</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>515.721601115411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>724.66456616518</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$E$51:$E$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.4049012688578</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5153177709812</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>85.92778746306961</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>144.133507525598</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>331.638134780554</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>515.721601115411</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>724.66456616518</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$30:$C$57</c:f>
@@ -1768,11 +5895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-45921184"/>
-        <c:axId val="-45917280"/>
+        <c:axId val="1314860128"/>
+        <c:axId val="1314882176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-45921184"/>
+        <c:axId val="1314860128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,13 +5911,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1817,13 +5958,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1871,7 +6026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45917280"/>
+        <c:crossAx val="1314882176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1879,7 +6034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-45917280"/>
+        <c:axId val="1314882176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,13 +6060,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1938,13 +6107,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1985,7 +6168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45921184"/>
+        <c:crossAx val="1314860128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,13 +6285,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Read Throughput (middleware</a:t>
+              <a:t>Read Throughput (middleware based data)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> based data)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2166,6 +6344,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$2:$I$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>48.1929843213343</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.0539777838433</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101.168100216395</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>118.329344939366</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.2553495109284</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>135.791937972804</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>83.6561435202163</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$2:$I$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>48.1929843213343</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.0539777838433</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>101.168100216395</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>118.329344939366</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>89.2553495109284</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>135.791937972804</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>83.6561435202163</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -2309,6 +6563,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$9:$I$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>27.0850818017301</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.9520842488336</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>102.492975573163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>221.399900720509</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>198.277231320822</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>204.070549885435</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>153.663395288545</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$9:$I$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>27.0850818017301</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.9520842488336</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>102.492975573163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>221.399900720509</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>198.277231320822</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>204.070549885435</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>153.663395288545</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -2452,6 +6782,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$23:$I$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.9584728299318</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>46.6656398073914</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>76.61087249548081</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>423.624250543492</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>240.042329447908</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>477.880561671898</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>570.657515121071</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$23:$I$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.9584728299318</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>46.6656398073914</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>76.61087249548081</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>423.624250543492</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>240.042329447908</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>477.880561671898</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>570.657515121071</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -2567,7 +6977,7 @@
                   <c:v>7641.89166666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8087.575</c:v>
+                  <c:v>9199.933333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10944.5375</c:v>
@@ -2595,6 +7005,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$16:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>25.7207644356077</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44.4877662888617</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>196.863849289055</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>167.739070630248</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>382.19067500942</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>621.4488636224449</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>436.518767719246</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$16:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>25.7207644356077</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44.4877662888617</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>196.863849289055</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>167.739070630248</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>382.19067500942</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>621.4488636224449</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>436.518767719246</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -2729,11 +7219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-45803696"/>
-        <c:axId val="-45799792"/>
+        <c:axId val="1170590016"/>
+        <c:axId val="1170594048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-45803696"/>
+        <c:axId val="1170590016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,13 +7235,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2759,14 +7263,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Clients per</a:t>
+                  <a:rPr lang="en-US">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Clients per memtier thread</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> memtier thread</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2783,13 +7284,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2837,7 +7352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45799792"/>
+        <c:crossAx val="1170594048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +7360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-45799792"/>
+        <c:axId val="1170594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,13 +7386,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2904,13 +7433,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2951,7 +7494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45803696"/>
+        <c:crossAx val="1170590016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3068,13 +7611,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Write Throughput (middleware</a:t>
+              <a:t>Write Throughput (middleware based data)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> based data)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3132,6 +7670,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$30:$I$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>31.7489825115079</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.553938248562</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>89.1504064997995</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.8019716538374</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>82.3834681617606</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>79.49983015779679</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>74.4572213209305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$30:$I$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>31.7489825115079</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.553938248562</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>89.1504064997995</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.8019716538374</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>82.3834681617606</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>79.49983015779679</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>74.4572213209305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -3275,6 +7889,82 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$37:$I$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>22.5089471595523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>42.3908558335222</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>79.2922527701943</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.102659198515</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.123919996033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>172.442131410786</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>130.609446816181</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$37:$I$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>22.5089471595523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>42.3908558335222</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>79.2922527701943</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.102659198515</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.123919996033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>172.442131410786</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>130.609446816181</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -3418,6 +8108,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$44:$I$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>21.9020320124903</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5048428150215</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>86.0305821811776</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>155.719751266334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>279.166049594438</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>469.377165266972</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>713.412860127861</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$44:$I$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>21.9020320124903</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.5048428150215</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>86.0305821811776</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>155.719751266334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>279.166049594438</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>469.377165266972</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>713.412860127861</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -3533,7 +8303,7 @@
                   <c:v>7785.67916666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8945.549999999999</c:v>
+                  <c:v>9142.9625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11022.375</c:v>
@@ -3561,6 +8331,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>data!$I$51:$I$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.2277866429799</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.6450187826677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.4565474512074</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>137.842571858107</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>328.967159213505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512.855832113446</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>691.516569504723</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>data!$I$51:$I$57</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>26.2277866429799</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.6450187826677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.4565474512074</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>137.842571858107</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>328.967159213505</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>512.855832113446</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>691.516569504723</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>data!$C$2:$C$29</c:f>
@@ -3695,11 +8545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-45766928"/>
-        <c:axId val="-45958096"/>
+        <c:axId val="1366642192"/>
+        <c:axId val="1366644864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-45766928"/>
+        <c:axId val="1366642192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3711,13 +8561,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3726,13 +8590,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Clients per</a:t>
+                  <a:t>Clients per memtier thread</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> memtier thread</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3749,13 +8608,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3803,7 +8676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45958096"/>
+        <c:crossAx val="1366644864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3811,7 +8684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-45958096"/>
+        <c:axId val="1366644864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,13 +8710,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3870,13 +8757,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3917,7 +8818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45766928"/>
+        <c:crossAx val="1366642192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4499,7 +9400,7 @@
                   <c:v>5.26808333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.813625</c:v>
+                  <c:v>5.72416666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.8915</c:v>
@@ -4661,11 +9562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-73555648"/>
-        <c:axId val="-73552592"/>
+        <c:axId val="1167008752"/>
+        <c:axId val="1167013296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73555648"/>
+        <c:axId val="1167008752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,7 +9670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73552592"/>
+        <c:crossAx val="1167013296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4777,7 +9678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73552592"/>
+        <c:axId val="1167013296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4883,7 +9784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73555648"/>
+        <c:crossAx val="1167008752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5465,7 +10366,7 @@
                   <c:v>2.856679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0060602083333</c:v>
+                  <c:v>2.75992820833333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.31965654166666</c:v>
@@ -5627,11 +10528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-548509648"/>
-        <c:axId val="-48563776"/>
+        <c:axId val="1310723680"/>
+        <c:axId val="1310728224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-548509648"/>
+        <c:axId val="1310723680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5735,7 +10636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-48563776"/>
+        <c:crossAx val="1310728224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5743,7 +10644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-48563776"/>
+        <c:axId val="1310728224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +10750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-548509648"/>
+        <c:crossAx val="1310723680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6431,7 +11332,7 @@
                   <c:v>5.16829166666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.87008333333333</c:v>
+                  <c:v>5.74908333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.86820833333333</c:v>
@@ -6593,11 +11494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-48819152"/>
-        <c:axId val="-548847056"/>
+        <c:axId val="1139591696"/>
+        <c:axId val="1139596240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-48819152"/>
+        <c:axId val="1139591696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6701,7 +11602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-548847056"/>
+        <c:crossAx val="1139596240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6709,7 +11610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-548847056"/>
+        <c:axId val="1139596240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,7 +11716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-48819152"/>
+        <c:crossAx val="1139591696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7397,7 +12298,7 @@
                   <c:v>2.79429095833333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.20566175</c:v>
+                  <c:v>2.71141658333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.31389954166666</c:v>
@@ -7559,11 +12460,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-71833328"/>
-        <c:axId val="-536738816"/>
+        <c:axId val="1139637824"/>
+        <c:axId val="1139642368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-71833328"/>
+        <c:axId val="1139637824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +12568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-536738816"/>
+        <c:crossAx val="1139642368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7675,7 +12576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-536738816"/>
+        <c:axId val="1139642368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7781,7 +12682,968 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-71833328"/>
+        <c:crossAx val="1139637824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Queue length for reads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154166666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.2333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.5083333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$9:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69166666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4958333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5416666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.4125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>32 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$16:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47916666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.47916666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>64 Workers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$23:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154166666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.63333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.31666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1310773344"/>
+        <c:axId val="1310777888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1310773344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clients per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> memtier thread</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310777888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1310777888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Queue length time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310773344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7863,6 +13725,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8182,6 +14164,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8698,7 +14720,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9214,7 +15236,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9730,7 +15752,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10246,7 +16268,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10762,7 +16784,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11278,7 +17300,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11794,7 +17816,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12557,6 +20643,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>778934</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14338,12 +22552,516 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AP110" sqref="AP110"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AG177" sqref="AG177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15419,46 +24137,46 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>8040.0458333333299</v>
+        <v>9116.1208333333307</v>
       </c>
       <c r="E21">
-        <v>2356.21467976442</v>
+        <v>576.53022686848396</v>
       </c>
       <c r="F21">
-        <v>39.813625000000002</v>
+        <v>5.72416666666666</v>
       </c>
       <c r="G21">
-        <v>154.36777843792001</v>
+        <v>0.39319117824530297</v>
       </c>
       <c r="H21">
-        <v>8087.5749999999998</v>
+        <v>9199.9333333333307</v>
       </c>
       <c r="I21">
-        <v>2408.9407302900099</v>
+        <v>621.44886362244495</v>
       </c>
       <c r="J21">
-        <v>20.006060208333299</v>
+        <v>2.7599282083333301</v>
       </c>
       <c r="K21">
-        <v>80.288178794691504</v>
+        <v>0.22347377442316399</v>
       </c>
       <c r="L21">
-        <v>0.82216650000000002</v>
+        <v>0.29156183333333302</v>
       </c>
       <c r="M21">
-        <v>5.92171141053303</v>
+        <v>5.0743584288219297E-2</v>
       </c>
       <c r="N21">
-        <v>2.7541666666666602</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="O21">
-        <v>4.9720961262252299</v>
+        <v>5.85499911565761</v>
       </c>
       <c r="P21">
-        <v>19.158556083333298</v>
+        <v>2.4449278749999999</v>
       </c>
       <c r="Q21">
-        <v>78.279122223533093</v>
+        <v>0.18649140646534801</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -16903,46 +25621,46 @@
         <v>26</v>
       </c>
       <c r="D49">
-        <v>8892.9208333333299</v>
+        <v>9066.8458333333292</v>
       </c>
       <c r="E49">
-        <v>594.13471943333002</v>
+        <v>458.25557583723202</v>
       </c>
       <c r="F49">
-        <v>5.87008333333333</v>
+        <v>5.7490833333333304</v>
       </c>
       <c r="G49">
-        <v>0.43170673416518501</v>
+        <v>0.33868437518906902</v>
       </c>
       <c r="H49">
-        <v>8945.5499999999993</v>
+        <v>9142.9624999999996</v>
       </c>
       <c r="I49">
-        <v>594.95289852595397</v>
+        <v>469.37716526697199</v>
       </c>
       <c r="J49">
-        <v>3.20566175</v>
+        <v>2.7114165833333299</v>
       </c>
       <c r="K49">
-        <v>0.24063194245391001</v>
+        <v>0.16448940043934901</v>
       </c>
       <c r="L49">
-        <v>0.35571149999999901</v>
+        <v>0.300209</v>
       </c>
       <c r="M49">
-        <v>4.7405309108071399E-2</v>
+        <v>6.0813311275447902E-2</v>
       </c>
       <c r="N49">
-        <v>3.5874999999999999</v>
+        <v>3.0208333333333299</v>
       </c>
       <c r="O49">
-        <v>5.8546417946730998</v>
+        <v>5.9653447691465198</v>
       </c>
       <c r="P49">
-        <v>2.82945695833333</v>
+        <v>2.39207145833333</v>
       </c>
       <c r="Q49">
-        <v>0.20667774125039701</v>
+        <v>0.122767400852548</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
